--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverpowell/Library/CloudStorage/OneDrive-NorwichBioScienceInstitutes/Summer2023/TreeMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8D6F7-7CC0-8B45-897A-1008852F7915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E061BE-39B2-3A4B-B98F-662F5E52DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{E11ACE8A-600C-4A93-B25B-5B44DC1F8A8F}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>DBH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Score (0-10)</t>
   </si>
@@ -421,23 +418,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6421B06-C479-4570-B567-4770AF67A98A}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -448,612 +445,609 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E151">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D151">
     <sortCondition ref="A1:A151"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
